--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Barry.Spring.011520.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Barry.Spring.011520.xlsx_with_dialog_acts.xlsx
@@ -933,12 +933,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -975,12 +975,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1059,12 +1059,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1395,12 +1395,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1437,12 +1437,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1525,12 +1525,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1609,12 +1609,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1861,12 +1861,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3639,12 +3639,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4735,12 +4735,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4861,12 +4861,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5029,12 +5029,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5201,12 +5201,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
